--- a/output/集成电路进口.xlsx
+++ b/output/集成电路进口.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J105"/>
+  <dimension ref="A1:J106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,12 +471,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2024年1-6月金额</t>
+          <t>2024年1-7月金额</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2024年1-6月占比</t>
+          <t>2024年1-7月占比</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -510,10 +510,10 @@
         <v>0.3646911188410902</v>
       </c>
       <c r="H2" t="n">
-        <v>489.22</v>
+        <v>593.29</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3761552538098387</v>
+        <v>0.3860278090454223</v>
       </c>
       <c r="J2" t="inlineStr"/>
     </row>
@@ -542,10 +542,10 @@
         <v>0.1689856603995127</v>
       </c>
       <c r="H3" t="n">
-        <v>238.67</v>
+        <v>281.62</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1835104338064556</v>
+        <v>0.1832377953165768</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -578,10 +578,10 @@
         <v>0.140897215739803</v>
       </c>
       <c r="H4" t="n">
-        <v>174.76</v>
+        <v>205.18</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1343708191729844</v>
+        <v>0.1335016364003097</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -614,10 +614,10 @@
         <v>0.07704049432727166</v>
       </c>
       <c r="H5" t="n">
-        <v>95.77</v>
+        <v>107.61</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07363637761614049</v>
+        <v>0.0700171122577119</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -650,10 +650,10 @@
         <v>0.07420779945107363</v>
       </c>
       <c r="H6" t="n">
-        <v>72.26000000000001</v>
+        <v>80.13</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05555982715403898</v>
+        <v>0.05213708024542751</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
         <v>0.06508593486269501</v>
       </c>
       <c r="H7" t="n">
-        <v>92.67</v>
+        <v>105.22</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07125282566239678</v>
+        <v>0.0684620439713451</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -722,10 +722,10 @@
         <v>0.03179810077348715</v>
       </c>
       <c r="H8" t="n">
-        <v>41.58</v>
+        <v>49.3</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03197035168924633</v>
+        <v>0.03207735000748254</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -758,10 +758,10 @@
         <v>0.02045264409317071</v>
       </c>
       <c r="H9" t="n">
-        <v>26.31</v>
+        <v>31.28</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02022943609774101</v>
+        <v>0.02035252552198892</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -794,10 +794,10 @@
         <v>0.01765297286190246</v>
       </c>
       <c r="H10" t="n">
-        <v>17.52</v>
+        <v>21.39</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01347091297728706</v>
+        <v>0.01391753583488949</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -830,10 +830,10 @@
         <v>0.01416347438099012</v>
       </c>
       <c r="H11" t="n">
-        <v>22.3</v>
+        <v>26.96</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01714619631241446</v>
+        <v>0.01754169079516692</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -866,10 +866,10 @@
         <v>0.00638457135308881</v>
       </c>
       <c r="H12" t="n">
-        <v>8.050000000000001</v>
+        <v>9.19</v>
       </c>
       <c r="I12" t="n">
-        <v>0.006189546202463517</v>
+        <v>0.005979530356364393</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -902,10 +902,10 @@
         <v>0.004931530976178944</v>
       </c>
       <c r="H13" t="n">
-        <v>5.78</v>
+        <v>6.91</v>
       </c>
       <c r="I13" t="n">
-        <v>0.004444171062141507</v>
+        <v>0.004496034250541671</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -938,10 +938,10 @@
         <v>0.002234599973581084</v>
       </c>
       <c r="H14" t="n">
-        <v>2.1</v>
+        <v>2.87</v>
       </c>
       <c r="I14" t="n">
-        <v>0.001614664226729613</v>
+        <v>0.00186738325601369</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -974,10 +974,10 @@
         <v>0.002124521157148518</v>
       </c>
       <c r="H15" t="n">
-        <v>2.59</v>
+        <v>3.09</v>
       </c>
       <c r="I15" t="n">
-        <v>0.001991419212966523</v>
+        <v>0.002010527617101847</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1010,10 +1010,10 @@
         <v>0.001911702112045558</v>
       </c>
       <c r="H16" t="n">
-        <v>2.3</v>
+        <v>2.68</v>
       </c>
       <c r="I16" t="n">
-        <v>0.001768441772132433</v>
+        <v>0.001743758580528463</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1046,10 +1046,10 @@
         <v>0.001676867303656085</v>
       </c>
       <c r="H17" t="n">
-        <v>1.51</v>
+        <v>1.83</v>
       </c>
       <c r="I17" t="n">
-        <v>0.001161020467791293</v>
+        <v>0.001190700821778764</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1082,10 +1082,10 @@
         <v>0.001276914270617762</v>
       </c>
       <c r="H18" t="n">
-        <v>2.16</v>
+        <v>2.65</v>
       </c>
       <c r="I18" t="n">
-        <v>0.001660797490350459</v>
+        <v>0.001724238894925532</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1118,10 +1118,10 @@
         <v>0.001100788164325657</v>
       </c>
       <c r="H19" t="n">
-        <v>1.64</v>
+        <v>1.86</v>
       </c>
       <c r="I19" t="n">
-        <v>0.001260975872303127</v>
+        <v>0.001210220507381695</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
         <v>0.0009356699396768085</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0003844438635070507</v>
+        <v>0.00035135434085275</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1190,10 +1190,10 @@
         <v>0.000799906066076644</v>
       </c>
       <c r="H21" t="n">
-        <v>0.76</v>
+        <v>0.87</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0005843546725307171</v>
+        <v>0.000566070882484986</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1226,10 +1226,10 @@
         <v>0.0006274492536656245</v>
       </c>
       <c r="H22" t="n">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0008150209906349476</v>
+        <v>0.000741748052911361</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1262,10 +1262,10 @@
         <v>0.0003192285676544406</v>
       </c>
       <c r="H23" t="n">
-        <v>0.54</v>
+        <v>0.62</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0004151993725876148</v>
+        <v>0.0004034068357938981</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1298,10 +1298,10 @@
         <v>0.0001247559919569078</v>
       </c>
       <c r="H24" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.11</v>
       </c>
       <c r="I24" t="n">
-        <v>7.688877270141014e-05</v>
+        <v>7.15721805440787e-05</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>0.02</v>
       </c>
       <c r="I25" t="n">
-        <v>1.537775454028203e-05</v>
+        <v>1.301312373528704e-05</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>0.03</v>
       </c>
       <c r="I26" t="n">
-        <v>2.306663181042304e-05</v>
+        <v>1.951968560293056e-05</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1438,10 +1438,10 @@
         <v>5.870870209736838e-05</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="I28" t="n">
-        <v>7.688877270141015e-05</v>
+        <v>7.807874241172222e-05</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1474,10 +1474,10 @@
         <v>5.137011433519733e-05</v>
       </c>
       <c r="H29" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="I29" t="n">
-        <v>6.151101816112812e-05</v>
+        <v>6.506561867643518e-05</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1510,10 +1510,10 @@
         <v>4.770082045411181e-05</v>
       </c>
       <c r="H30" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I30" t="n">
-        <v>7.688877270141015e-06</v>
+        <v>1.951968560293056e-05</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>0.04</v>
       </c>
       <c r="I32" t="n">
-        <v>3.075550908056406e-05</v>
+        <v>2.602624747057407e-05</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>0.03</v>
       </c>
       <c r="I33" t="n">
-        <v>2.306663181042304e-05</v>
+        <v>1.951968560293056e-05</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -1654,10 +1654,10 @@
         <v>1.834646940542762e-05</v>
       </c>
       <c r="H34" t="n">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
       <c r="I34" t="n">
-        <v>3.844438635070508e-05</v>
+        <v>7.807874241172222e-05</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -1690,10 +1690,10 @@
         <v>1.46771755243421e-05</v>
       </c>
       <c r="H35" t="n">
-        <v>0.06</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="I35" t="n">
-        <v>4.613326362084609e-05</v>
+        <v>4.554593307350462e-05</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -1740,20 +1740,20 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>匈牙利</t>
+          <t>西班牙</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>1.523258249395457e-05</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="E37" t="n">
-        <v>9.575364502208717e-06</v>
+        <v>3.191788167402906e-06</v>
       </c>
       <c r="F37" t="n">
         <v>0.02</v>
@@ -1776,20 +1776,20 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>澳大利亚</t>
+          <t>匈牙利</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1.523258249395457e-05</v>
       </c>
       <c r="D38" t="n">
-        <v>0.06999999999999999</v>
+        <v>0.03</v>
       </c>
       <c r="E38" t="n">
-        <v>2.234251717182034e-05</v>
+        <v>9.575364502208717e-06</v>
       </c>
       <c r="F38" t="n">
         <v>0.02</v>
@@ -1798,21 +1798,21 @@
         <v>7.338587762171048e-06</v>
       </c>
       <c r="H38" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>7.688877270141015e-06</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>大洋洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>西班牙</t>
+          <t>澳大利亚</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1822,10 +1822,10 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0.01</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>3.191788167402906e-06</v>
+        <v>2.234251717182034e-05</v>
       </c>
       <c r="F39" t="n">
         <v>0.02</v>
@@ -1834,14 +1834,14 @@
         <v>7.338587762171048e-06</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>6.506561867643518e-06</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>大洋洲</t>
         </is>
       </c>
     </row>
@@ -1920,14 +1920,14 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>阿曼</t>
+          <t>爱沙尼亚</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>3.808145623488643e-06</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -1949,153 +1949,157 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>毛里求斯</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>马约特</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>马尔代夫</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>亚洲</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>蒙古</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>亚洲</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
           <t xml:space="preserve">非洲其他国家(地区) </t>
         </is>
       </c>
-      <c r="B43" t="n">
-        <v>0</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>马尔代夫</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>0</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>亚洲</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>爱沙尼亚</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="C45" t="n">
-        <v>3.808145623488643e-06</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>欧洲</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>阿联酋</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>0</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>马约特</t>
-        </is>
-      </c>
       <c r="B47" t="n">
         <v>0</v>
       </c>
@@ -2125,7 +2129,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>特克斯和凯科斯群岛</t>
+          <t>蒙特塞拉特</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -2157,7 +2161,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>萨尔瓦多</t>
+          <t>阿联酋</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -2184,16 +2188,12 @@
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>北美洲</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>阿塞拜疆(2023年起)</t>
+          <t>毛里塔尼亚</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -2220,12 +2220,16 @@
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>阿富汗</t>
+          <t>罗马尼亚</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -2254,27 +2258,27 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>白俄罗斯</t>
+          <t>特克斯和凯科斯群岛</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>3.808145623488643e-06</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>3.191788167402906e-06</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -2288,16 +2292,12 @@
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>欧洲</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>皮特凯恩(2023年起增列)</t>
+          <t>缅甸</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -2324,12 +2324,16 @@
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>亚洲</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>突尼斯</t>
+          <t>阿曼</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -2358,14 +2362,14 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>立陶宛</t>
+          <t>阿富汗</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -2394,14 +2398,14 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>索马里</t>
+          <t>萨尔瓦多</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -2430,14 +2434,14 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>北美洲</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>约旦</t>
+          <t>皮特凯恩(2023年起增列)</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -2464,16 +2468,12 @@
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>亚洲</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>纳米比亚</t>
+          <t>突尼斯</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -2509,7 +2509,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>缅甸</t>
+          <t>立陶宛</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -2538,14 +2538,14 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>罗马尼亚</t>
+          <t>索马里</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -2574,14 +2574,14 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>蒙特塞拉特</t>
+          <t>阿塞拜疆(2023年起)</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -2613,7 +2613,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>毛里求斯</t>
+          <t>约旦</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -2642,14 +2642,14 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>蒙古</t>
+          <t>纳米比亚</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -2678,27 +2678,27 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>东帝汶</t>
+          <t>白俄罗斯</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>3.808145623488643e-06</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>3.191788167402906e-06</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -2714,14 +2714,14 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>摩纳哥</t>
+          <t>东帝汶</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -2750,14 +2750,14 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>毛里塔尼亚</t>
+          <t>智利</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -2786,14 +2786,14 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>南美洲</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>智利</t>
+          <t>土耳其</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -2803,10 +2803,10 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>6.383576334805812e-06</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>南美洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
@@ -3473,7 +3473,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>土耳其</t>
+          <t>圣多美和普林西比</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -3483,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>6.383576334805812e-06</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -3502,14 +3502,14 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>圣多美和普林西比</t>
+          <t>新喀里多尼亚</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -3536,16 +3536,12 @@
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>非洲</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>希腊</t>
+          <t>埃及</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -3574,14 +3570,14 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>新喀里多尼亚</t>
+          <t>斯里兰卡</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -3608,25 +3604,29 @@
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>亚洲</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>斯里兰卡</t>
+          <t>斯洛文尼亚</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>1.904072811744322e-05</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>1.276715266961162e-05</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
@@ -3642,27 +3642,27 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>斯洛文尼亚</t>
+          <t>斯洛伐克</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>1.904072811744322e-05</v>
+        <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>1.276715266961162e-05</v>
+        <v>0</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
@@ -3685,7 +3685,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>斯洛伐克</t>
+          <t>摩纳哥</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -3825,7 +3825,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>巴西</t>
+          <t>希腊</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -3835,10 +3835,10 @@
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>3.191788167402906e-06</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
@@ -3854,14 +3854,14 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>南美洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>埃及</t>
+          <t>巴西</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -3871,10 +3871,10 @@
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>3.191788167402906e-06</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
@@ -3890,7 +3890,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>南美洲</t>
         </is>
       </c>
     </row>
@@ -3969,7 +3969,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>孟加拉国</t>
+          <t>安道尔</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -3998,14 +3998,14 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>塞浦路斯</t>
+          <t>孟加拉国</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -4015,10 +4015,10 @@
         <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>3.191788167402906e-06</v>
+        <v>0</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
@@ -4034,14 +4034,14 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>塞内加尔</t>
+          <t>塞浦路斯</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -4051,10 +4051,10 @@
         <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E102" t="n">
-        <v>0</v>
+        <v>3.191788167402906e-06</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -4070,14 +4070,14 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>塔吉克斯坦</t>
+          <t>塞内加尔</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -4106,14 +4106,14 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>埃塞俄比亚</t>
+          <t>塔吉克斯坦</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -4142,41 +4142,77 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
+          <t>埃塞俄比亚</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
           <t>马里</t>
         </is>
       </c>
-      <c r="B105" t="n">
-        <v>0</v>
-      </c>
-      <c r="C105" t="n">
-        <v>0</v>
-      </c>
-      <c r="D105" t="n">
-        <v>0</v>
-      </c>
-      <c r="E105" t="n">
-        <v>0</v>
-      </c>
-      <c r="F105" t="n">
-        <v>0</v>
-      </c>
-      <c r="G105" t="n">
-        <v>0</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr">
+      <c r="B106" t="n">
+        <v>0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr">
         <is>
           <t>非洲</t>
         </is>

--- a/output/集成电路进口.xlsx
+++ b/output/集成电路进口.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J106"/>
+  <dimension ref="A1:J108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,12 +471,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2024年1-7月金额</t>
+          <t>2024年1-8月金额</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2024年1-7月占比</t>
+          <t>2024年1-8月占比</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -510,10 +510,10 @@
         <v>0.3646911188410902</v>
       </c>
       <c r="H2" t="n">
-        <v>593.29</v>
+        <v>708.2</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3860278090454223</v>
+        <v>0.3984135467356756</v>
       </c>
       <c r="J2" t="inlineStr"/>
     </row>
@@ -542,10 +542,10 @@
         <v>0.1689856603995127</v>
       </c>
       <c r="H3" t="n">
-        <v>281.62</v>
+        <v>317.82</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1832377953165768</v>
+        <v>0.1787966583218475</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -578,10 +578,10 @@
         <v>0.140897215739803</v>
       </c>
       <c r="H4" t="n">
-        <v>205.18</v>
+        <v>233.54</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1335016364003097</v>
+        <v>0.131383083457568</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -614,10 +614,10 @@
         <v>0.07704049432727166</v>
       </c>
       <c r="H5" t="n">
-        <v>107.61</v>
+        <v>122.43</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0700171122577119</v>
+        <v>0.06887569969902395</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -650,10 +650,10 @@
         <v>0.07420779945107363</v>
       </c>
       <c r="H6" t="n">
-        <v>80.13</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05213708024542751</v>
+        <v>0.05068774436724706</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
         <v>0.06508593486269501</v>
       </c>
       <c r="H7" t="n">
-        <v>105.22</v>
+        <v>116.49</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0684620439713451</v>
+        <v>0.06553402154651067</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -722,10 +722,10 @@
         <v>0.03179810077348715</v>
       </c>
       <c r="H8" t="n">
-        <v>49.3</v>
+        <v>57.27</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03207735000748254</v>
+        <v>0.03221850299569633</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -758,10 +758,10 @@
         <v>0.02045264409317071</v>
       </c>
       <c r="H9" t="n">
-        <v>31.28</v>
+        <v>36.12</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02035252552198892</v>
+        <v>0.02032010351326264</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -794,10 +794,10 @@
         <v>0.01765297286190246</v>
       </c>
       <c r="H10" t="n">
-        <v>21.39</v>
+        <v>24.38</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01391753583488949</v>
+        <v>0.01371550729937273</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -830,10 +830,10 @@
         <v>0.01416347438099012</v>
       </c>
       <c r="H11" t="n">
-        <v>26.96</v>
+        <v>31.4</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01754169079516692</v>
+        <v>0.01766476329779753</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -866,10 +866,10 @@
         <v>0.00638457135308881</v>
       </c>
       <c r="H12" t="n">
-        <v>9.19</v>
+        <v>10.28</v>
       </c>
       <c r="I12" t="n">
-        <v>0.005979530356364393</v>
+        <v>0.005783240977750275</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -902,10 +902,10 @@
         <v>0.004931530976178944</v>
       </c>
       <c r="H13" t="n">
-        <v>6.91</v>
+        <v>7.98</v>
       </c>
       <c r="I13" t="n">
-        <v>0.004496034250541671</v>
+        <v>0.004489325194790583</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -938,10 +938,10 @@
         <v>0.002234599973581084</v>
       </c>
       <c r="H14" t="n">
-        <v>2.87</v>
+        <v>3.36</v>
       </c>
       <c r="I14" t="n">
-        <v>0.00186738325601369</v>
+        <v>0.001890242187280246</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -974,10 +974,10 @@
         <v>0.002124521157148518</v>
       </c>
       <c r="H15" t="n">
-        <v>3.09</v>
+        <v>3.49</v>
       </c>
       <c r="I15" t="n">
-        <v>0.002010527617101847</v>
+        <v>0.001963376557621446</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1010,10 +1010,10 @@
         <v>0.001911702112045558</v>
       </c>
       <c r="H16" t="n">
-        <v>2.68</v>
+        <v>3.18</v>
       </c>
       <c r="I16" t="n">
-        <v>0.001743758580528463</v>
+        <v>0.001788979212961661</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1046,10 +1046,10 @@
         <v>0.001676867303656085</v>
       </c>
       <c r="H17" t="n">
-        <v>1.83</v>
+        <v>2.15</v>
       </c>
       <c r="I17" t="n">
-        <v>0.001190700821778764</v>
+        <v>0.001209529971027538</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1082,10 +1082,10 @@
         <v>0.001276914270617762</v>
       </c>
       <c r="H18" t="n">
-        <v>2.65</v>
+        <v>2.88</v>
       </c>
       <c r="I18" t="n">
-        <v>0.001724238894925532</v>
+        <v>0.001620207589097353</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1118,10 +1118,10 @@
         <v>0.001100788164325657</v>
       </c>
       <c r="H19" t="n">
-        <v>1.86</v>
+        <v>2.12</v>
       </c>
       <c r="I19" t="n">
-        <v>0.001210220507381695</v>
+        <v>0.001192652808641107</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
         <v>0.0009356699396768085</v>
       </c>
       <c r="H20" t="n">
-        <v>0.54</v>
+        <v>0.64</v>
       </c>
       <c r="I20" t="n">
-        <v>0.00035135434085275</v>
+        <v>0.000360046130910523</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1190,10 +1190,10 @@
         <v>0.000799906066076644</v>
       </c>
       <c r="H21" t="n">
-        <v>0.87</v>
+        <v>1.02</v>
       </c>
       <c r="I21" t="n">
-        <v>0.000566070882484986</v>
+        <v>0.000573823521138646</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1226,10 +1226,10 @@
         <v>0.0006274492536656245</v>
       </c>
       <c r="H22" t="n">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="I22" t="n">
-        <v>0.000741748052911361</v>
+        <v>0.0007257179826165228</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1262,10 +1262,10 @@
         <v>0.0003192285676544406</v>
       </c>
       <c r="H23" t="n">
-        <v>0.62</v>
+        <v>0.7</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0004034068357938981</v>
+        <v>0.0003938004556833844</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1298,10 +1298,10 @@
         <v>0.0001247559919569078</v>
       </c>
       <c r="H24" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I24" t="n">
-        <v>7.15721805440787e-05</v>
+        <v>6.750864954572305e-05</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>0.02</v>
       </c>
       <c r="I25" t="n">
-        <v>1.301312373528704e-05</v>
+        <v>1.125144159095384e-05</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>0.03</v>
       </c>
       <c r="I26" t="n">
-        <v>1.951968560293056e-05</v>
+        <v>1.687716238643076e-05</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1441,7 +1441,7 @@
         <v>0.12</v>
       </c>
       <c r="I28" t="n">
-        <v>7.807874241172222e-05</v>
+        <v>6.750864954572305e-05</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1474,10 +1474,10 @@
         <v>5.137011433519733e-05</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="I29" t="n">
-        <v>6.506561867643518e-05</v>
+        <v>6.188292875024614e-05</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>0.03</v>
       </c>
       <c r="I30" t="n">
-        <v>1.951968560293056e-05</v>
+        <v>1.687716238643076e-05</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>0.04</v>
       </c>
       <c r="I32" t="n">
-        <v>2.602624747057407e-05</v>
+        <v>2.250288318190769e-05</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>0.03</v>
       </c>
       <c r="I33" t="n">
-        <v>1.951968560293056e-05</v>
+        <v>1.687716238643076e-05</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>0.12</v>
       </c>
       <c r="I34" t="n">
-        <v>7.807874241172222e-05</v>
+        <v>6.750864954572305e-05</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>0.06999999999999999</v>
       </c>
       <c r="I35" t="n">
-        <v>4.554593307350462e-05</v>
+        <v>3.938004556833844e-05</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>0.01</v>
       </c>
       <c r="I39" t="n">
-        <v>6.506561867643518e-06</v>
+        <v>5.625720795476921e-06</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -1870,10 +1870,10 @@
         <v>3.669293881085524e-06</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>5.625720795476921e-06</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -1920,14 +1920,14 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>爱沙尼亚</t>
+          <t>萨尔瓦多</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>3.808145623488643e-06</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -1949,14 +1949,14 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>北美洲</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>毛里求斯</t>
+          <t>阿联酋</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1983,16 +1983,12 @@
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>非洲</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>马约特</t>
+          <t>特克斯和凯科斯群岛</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -2060,14 +2056,14 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>蒙古</t>
+          <t>爱沙尼亚</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>3.808145623488643e-06</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -2089,7 +2085,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2125,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>蒙特塞拉特</t>
+          <t>马约特</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -2161,7 +2157,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>阿联酋</t>
+          <t>阿曼</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -2188,25 +2184,29 @@
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>亚洲</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>毛里塔尼亚</t>
+          <t>白俄罗斯</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>3.808145623488643e-06</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>3.191788167402906e-06</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
@@ -2222,14 +2222,14 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>罗马尼亚</t>
+          <t>阿尔巴尼亚</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -2265,7 +2265,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>特克斯和凯科斯群岛</t>
+          <t>阿富汗</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -2292,12 +2292,16 @@
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>亚洲</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>缅甸</t>
+          <t>蒙古</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -2333,7 +2337,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>阿曼</t>
+          <t>皮特凯恩(2023年起增列)</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -2360,16 +2364,12 @@
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>亚洲</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>阿富汗</t>
+          <t>突尼斯</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -2398,14 +2398,14 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>萨尔瓦多</t>
+          <t>立陶宛</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -2434,14 +2434,14 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>北美洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>皮特凯恩(2023年起增列)</t>
+          <t>索马里</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -2468,12 +2468,16 @@
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>突尼斯</t>
+          <t>约旦</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -2502,14 +2506,14 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>立陶宛</t>
+          <t>阿塞拜疆(2023年起)</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -2536,16 +2540,12 @@
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>欧洲</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>索马里</t>
+          <t>纳米比亚</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -2581,7 +2581,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>阿塞拜疆(2023年起)</t>
+          <t>缅甸</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -2608,12 +2608,16 @@
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>亚洲</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>约旦</t>
+          <t>罗马尼亚</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -2642,14 +2646,14 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>纳米比亚</t>
+          <t>毛里求斯</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -2685,20 +2689,20 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>白俄罗斯</t>
+          <t>蒙特塞拉特</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>3.808145623488643e-06</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>3.191788167402906e-06</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -2712,11 +2716,7 @@
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>欧洲</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2757,7 +2757,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>智利</t>
+          <t>摩纳哥</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -2786,14 +2786,14 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>南美洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>土耳其</t>
+          <t>毛里塔尼亚</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -2803,10 +2803,10 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>6.383576334805812e-06</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
@@ -2822,14 +2822,14 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>哥伦比亚</t>
+          <t>冰岛</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -2858,14 +2858,14 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>南美洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>厄瓜多尔</t>
+          <t>喀麦隆</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -2894,14 +2894,14 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>南美洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>危地马拉</t>
+          <t>哥伦比亚</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -2930,14 +2930,14 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>北美洲</t>
+          <t>南美洲</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>卢森堡</t>
+          <t>厄瓜多尔</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -2966,14 +2966,14 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>南美洲</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>南非</t>
+          <t>危地马拉</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -3002,14 +3002,14 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>北美洲</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>北马其顿</t>
+          <t>卢森堡</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -3045,7 +3045,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>几内亚比绍</t>
+          <t>南非</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -3081,7 +3081,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>冰岛</t>
+          <t>北马其顿</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -3117,7 +3117,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>克罗地亚</t>
+          <t>几内亚比绍</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -3146,27 +3146,27 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>保加利亚</t>
+          <t>克罗地亚</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>7.616291246977286e-06</v>
+        <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>6.383576334805812e-06</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>佛得角</t>
+          <t>柬埔寨</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -3218,27 +3218,27 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>伊朗</t>
+          <t>保加利亚</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>7.616291246977286e-06</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>6.383576334805812e-06</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
@@ -3254,14 +3254,14 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>亚美尼亚(2023年起停用)</t>
+          <t>佛得角</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -3288,19 +3288,23 @@
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>也门</t>
+          <t>伊朗</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>3.808145623488643e-06</v>
+        <v>0</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
@@ -3329,7 +3333,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>乌拉圭</t>
+          <t>亚美尼亚(2023年起停用)</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -3356,23 +3360,19 @@
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>南美洲</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>乌克兰</t>
+          <t>也门</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>3.808145623488643e-06</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
@@ -3394,14 +3394,14 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>中国澳门</t>
+          <t>乌拉圭</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -3430,14 +3430,14 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>南美洲</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>喀麦隆</t>
+          <t>乌克兰</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -3466,14 +3466,14 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>圣多美和普林西比</t>
+          <t>中国澳门</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -3502,14 +3502,14 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>新喀里多尼亚</t>
+          <t>土耳其</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -3519,10 +3519,10 @@
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>6.383576334805812e-06</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
@@ -3536,12 +3536,16 @@
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>亚洲</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>埃及</t>
+          <t>圣多美和普林西比</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -3577,7 +3581,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>斯里兰卡</t>
+          <t>埃及</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -3606,27 +3610,27 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>斯洛文尼亚</t>
+          <t>埃塞俄比亚</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>1.904072811744322e-05</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>1.276715266961162e-05</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
@@ -3642,14 +3646,14 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>斯洛伐克</t>
+          <t>智利</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -3678,14 +3682,14 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>南美洲</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>摩纳哥</t>
+          <t>新喀里多尼亚</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -3712,16 +3716,12 @@
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>欧洲</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>挪威</t>
+          <t>斯里兰卡</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -3750,27 +3750,27 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>拉脱维亚</t>
+          <t>斯洛文尼亚</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>1.904072811744322e-05</v>
       </c>
       <c r="D94" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="E94" t="n">
-        <v>6.383576334805812e-06</v>
+        <v>1.276715266961162e-05</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>开曼群岛</t>
+          <t>斯洛伐克</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -3820,12 +3820,16 @@
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>欧洲</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>希腊</t>
+          <t>挪威</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -3861,7 +3865,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>巴西</t>
+          <t>拉脱维亚</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -3871,10 +3875,10 @@
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E97" t="n">
-        <v>3.191788167402906e-06</v>
+        <v>6.383576334805812e-06</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
@@ -3890,14 +3894,14 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>南美洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>巴林</t>
+          <t>开曼群岛</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -3924,16 +3928,12 @@
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>亚洲</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>巴布亚新几内亚</t>
+          <t>希腊</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -3962,14 +3962,14 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>大洋洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>安道尔</t>
+          <t>巴西</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -3979,10 +3979,10 @@
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>3.191788167402906e-06</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
@@ -3998,14 +3998,14 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>南美洲</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>孟加拉国</t>
+          <t>巴林</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -4041,7 +4041,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>塞浦路斯</t>
+          <t>巴布亚新几内亚</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -4051,10 +4051,10 @@
         <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>3.191788167402906e-06</v>
+        <v>0</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -4070,14 +4070,14 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>大洋洲</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>塞内加尔</t>
+          <t>安道尔</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -4106,14 +4106,14 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>塔吉克斯坦</t>
+          <t>孟加拉国</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -4149,7 +4149,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>埃塞俄比亚</t>
+          <t>塞浦路斯</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -4159,10 +4159,10 @@
         <v>0</v>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E105" t="n">
-        <v>0</v>
+        <v>3.191788167402906e-06</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
@@ -4178,41 +4178,113 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
+          <t>塞内加尔</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>塔吉克斯坦</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>亚洲</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
           <t>马里</t>
         </is>
       </c>
-      <c r="B106" t="n">
-        <v>0</v>
-      </c>
-      <c r="C106" t="n">
-        <v>0</v>
-      </c>
-      <c r="D106" t="n">
-        <v>0</v>
-      </c>
-      <c r="E106" t="n">
-        <v>0</v>
-      </c>
-      <c r="F106" t="n">
-        <v>0</v>
-      </c>
-      <c r="G106" t="n">
-        <v>0</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr">
+      <c r="B108" t="n">
+        <v>0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr">
         <is>
           <t>非洲</t>
         </is>
